--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Raport wydatków</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Środki czyszczące</t>
+  </si>
+  <si>
+    <t>16-07-2022</t>
   </si>
 </sst>
 </file>
@@ -128,12 +131,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>MainReport!A11:D11</c:f>
+              <c:f>MainReport!A13:D13</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MainReport!A12:D12</c:f>
+              <c:f>MainReport!A14:D14</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -311,7 +314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,31 +418,53 @@
         <v>500</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0">
+        <v>1400</v>
+      </c>
+    </row>
     <row r="11">
       <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="C11" s="0">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C13" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>1300</v>
-      </c>
-      <c r="B12" s="0">
+    <row r="14">
+      <c r="A14" s="1">
+        <v>4100</v>
+      </c>
+      <c r="B14" s="0">
         <v>500</v>
       </c>
-      <c r="C12" s="0">
+      <c r="C14" s="0">
         <v>200</v>
       </c>
-      <c r="D12" s="0">
+      <c r="D14" s="0">
         <v>1100</v>
       </c>
     </row>

--- a/Raport.xlsx
+++ b/Raport.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Raport wydatków</t>
   </si>
@@ -26,15 +26,12 @@
     <t>Value</t>
   </si>
   <si>
-    <t>10-07-2022</t>
+    <t>19-07-2022</t>
   </si>
   <si>
     <t>Opłaty</t>
   </si>
   <si>
-    <t>12-07-2022</t>
-  </si>
-  <si>
     <t>Paliwo</t>
   </si>
   <si>
@@ -42,9 +39,6 @@
   </si>
   <si>
     <t>Środki czyszczące</t>
-  </si>
-  <si>
-    <t>16-07-2022</t>
   </si>
 </sst>
 </file>
@@ -131,12 +125,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>MainReport!A13:D13</c:f>
+              <c:f>MainReport!A7:D7</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>MainReport!A14:D14</c:f>
+              <c:f>MainReport!A8:D8</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -314,7 +308,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -354,118 +348,52 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" s="0">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="0">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="0">
-        <v>300</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="0">
-        <v>200</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>9</v>
+      <c r="A8" s="1">
+        <v>800</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1500</v>
       </c>
       <c r="C8" s="0">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="0">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="0">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>4100</v>
-      </c>
-      <c r="B14" s="0">
-        <v>500</v>
-      </c>
-      <c r="C14" s="0">
-        <v>200</v>
-      </c>
-      <c r="D14" s="0">
-        <v>1100</v>
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
